--- a/fichiers_xls/test_method_on_all_sheets.xlsx
+++ b/fichiers_xls/test_method_on_all_sheets.xlsx
@@ -32415,7 +32415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="1:1048576"/>
@@ -32442,12 +32442,12 @@
           <t>Toute radioactivité résulte de l’action de l’homme</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="G1" s="12" t="inlineStr">
         <is>
           <t>accuracy_Q8</t>
         </is>
@@ -32467,12 +32467,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="G2" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32490,12 +32496,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="G3" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32513,12 +32525,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="G4" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32536,12 +32554,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="G5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32559,12 +32583,18 @@
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="G6" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32582,12 +32612,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="G7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32605,12 +32641,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="G8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32628,12 +32670,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="G9" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32651,12 +32699,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="G10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32674,12 +32728,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="G11" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32697,12 +32757,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="G12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32720,12 +32786,18 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="G13" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32743,12 +32815,18 @@
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="G14" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32774,7 +32852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="1:1048576"/>
@@ -32801,12 +32879,12 @@
           <t>Toute radioactivité résulte de l’action de l’homme</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="E1" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>accuracy_Q8</t>
         </is>
@@ -32826,12 +32904,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="F2" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32849,12 +32930,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="F3" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32872,12 +32956,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="F4" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32895,12 +32982,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="F5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32918,12 +33008,15 @@
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="F6" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32941,12 +33034,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="F7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32964,12 +33060,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="F8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32987,12 +33086,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="F9" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33010,12 +33112,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="F10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33033,12 +33138,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="F11" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33056,12 +33164,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="F12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33079,12 +33190,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="F13" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33102,12 +33216,15 @@
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="F14" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33133,7 +33250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="1:1048576"/>
@@ -33160,12 +33277,12 @@
           <t>Toute radioactivité résulte de l’action de l’homme</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="E1" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>accuracy_Q8</t>
         </is>
@@ -33185,12 +33302,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="F2" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33208,12 +33328,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="F3" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33231,12 +33354,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="F4" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33254,12 +33380,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="F5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33277,12 +33406,15 @@
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="F6" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33300,12 +33432,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="F7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33323,12 +33458,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="F8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33346,12 +33484,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="F9" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33369,12 +33510,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="F10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33392,12 +33536,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="F11" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33415,12 +33562,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="F12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33438,12 +33588,15 @@
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="F13" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33461,12 +33614,15 @@
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="F14" s="8" t="n">
         <v>1</v>
       </c>
     </row>
